--- a/02_Document/設計書/センサーチーム/センサーチーム設計書.xlsx
+++ b/02_Document/設計書/センサーチーム/センサーチーム設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Other\GroupWork\DSensor\DSensor\02_Document\設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Other\GroupWork\DSensor\DSensor\02_Document\設計書\センサーチーム\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,8 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="ファイル設計" sheetId="2" r:id="rId1"/>
-    <sheet name="シーケンス設計" sheetId="4" r:id="rId2"/>
-    <sheet name="ログ設計" sheetId="3" r:id="rId3"/>
+    <sheet name="ファイル設計（設定）" sheetId="5" r:id="rId2"/>
+    <sheet name="シーケンス設計" sheetId="4" r:id="rId3"/>
+    <sheet name="ログ設計" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t>ファイル設計</t>
     <rPh sb="4" eb="6">
@@ -265,19 +266,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・ログ出力箇所はシーケンスを参照</t>
-    <rPh sb="3" eb="5">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カショ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>①起動時処理</t>
     <rPh sb="1" eb="3">
       <t>キドウ</t>
@@ -321,6 +309,201 @@
     </rPh>
     <rPh sb="17" eb="18">
       <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■設定ファイル（Setting.py）の項目</t>
+    <rPh sb="1" eb="3">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LOG_LEVEL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ログ出力箇所はシーケンスを参照（ただし、Debugログは省略）</t>
+    <rPh sb="3" eb="5">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ショウリャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RESOLUTION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ADコンバーターの分解能</t>
+    <rPh sb="9" eb="12">
+      <t>ブンカイノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ERROR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログ出力のレベル</t>
+    <rPh sb="2" eb="4">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST_INTERVAL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST_RETRY_INTERVAL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST_RETRY_TIMES</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>湿度送信失敗時のリトライ間隔(sec)</t>
+    <rPh sb="0" eb="2">
+      <t>シツド</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>湿度の送信間隔(sec)</t>
+    <rPh sb="0" eb="2">
+      <t>シツド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>湿度送信失敗時のリトライ回数</t>
+    <rPh sb="0" eb="2">
+      <t>シツド</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SENSOR_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>センサー識別ID</t>
+    <rPh sb="4" eb="6">
+      <t>シキベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WEB_API_URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>湿度送信の際に実行するWebAPIのURL</t>
+    <rPh sb="0" eb="2">
+      <t>シツド</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（未定）</t>
+    <rPh sb="1" eb="3">
+      <t>ミテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST_TIMEOUT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>湿度送信タイムアウト(sec)</t>
+    <rPh sb="0" eb="2">
+      <t>シツド</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル設計（設定）</t>
+    <rPh sb="4" eb="6">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -423,7 +606,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -453,6 +636,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -860,6 +1052,135 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="4" width="37.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="10">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="10">
+        <v>3600</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="10">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="10">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="12">
+        <v>10</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -878,27 +1199,27 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -907,7 +1228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -957,7 +1278,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
